--- a/schedule-summary.xlsx
+++ b/schedule-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\basis-data-kelompok-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA086423-2284-40AA-984F-6D39CA27FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D1451-8345-4DF5-B080-8BC112612538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4457" yWindow="5109" windowWidth="15574" windowHeight="8091" xr2:uid="{F92E077C-1BE4-452C-93F4-01E5E0A60424}"/>
+    <workbookView xWindow="4114" yWindow="4766" windowWidth="15575" windowHeight="8091" xr2:uid="{F92E077C-1BE4-452C-93F4-01E5E0A60424}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>Praktikum Sistem Basis Data B</t>
   </si>
   <si>
-    <t>Tabel schedule_summary</t>
+    <t>Tabel schedule-summary</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,46 +163,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -211,48 +181,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,16 +553,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -608,551 +575,551 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>44105</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>44105</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>44105</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>44105</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>44105</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>44105</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>44105</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>44105</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>44106</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>44106</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>44106</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>44106</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>44106</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>44106</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>44106</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>44106</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>44107</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>44107</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>44107</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>44107</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>44107</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>44107</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>44107</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>44107</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>44108</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>44108</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>44108</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>44108</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>44108</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>44108</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>44108</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>44108</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>0.5</v>
       </c>
     </row>

--- a/schedule-summary.xlsx
+++ b/schedule-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\basis-data-kelompok-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D1451-8345-4DF5-B080-8BC112612538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD4674-019F-48B7-8FF4-63D7751AA0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4114" yWindow="4766" windowWidth="15575" windowHeight="8091" xr2:uid="{F92E077C-1BE4-452C-93F4-01E5E0A60424}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{F92E077C-1BE4-452C-93F4-01E5E0A60424}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>schedule_id</t>
   </si>
   <si>
-    <t>students_name</t>
-  </si>
-  <si>
     <t>course_name</t>
   </si>
   <si>
@@ -88,7 +85,10 @@
     <t>Praktikum Sistem Basis Data B</t>
   </si>
   <si>
-    <t>Tabel schedule-summary</t>
+    <t>Tabel schedule_summary</t>
+  </si>
+  <si>
+    <t>student_name</t>
   </si>
 </sst>
 </file>
@@ -210,16 +210,16 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,30 +553,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:5" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -584,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="8">
         <v>44105</v>
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>44105</v>
@@ -618,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>44105</v>
@@ -635,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>44105</v>
@@ -652,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>44105</v>
@@ -669,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>44105</v>
@@ -686,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>44105</v>
@@ -703,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>44105</v>
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
         <v>44106</v>
@@ -737,10 +737,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>44106</v>
@@ -754,10 +754,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
         <v>44106</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>44106</v>
@@ -788,10 +788,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>44106</v>
@@ -805,10 +805,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
         <v>44106</v>
@@ -822,10 +822,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
         <v>44106</v>
@@ -839,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D19" s="4">
         <v>44106</v>
@@ -856,10 +856,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4">
         <v>44107</v>
@@ -873,10 +873,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4">
         <v>44107</v>
@@ -890,10 +890,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4">
         <v>44107</v>
@@ -907,10 +907,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4">
         <v>44107</v>
@@ -924,10 +924,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4">
         <v>44107</v>
@@ -941,10 +941,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4">
         <v>44107</v>
@@ -958,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4">
         <v>44107</v>
@@ -975,10 +975,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4">
         <v>44107</v>
@@ -992,10 +992,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4">
         <v>44108</v>
@@ -1009,10 +1009,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="4">
         <v>44108</v>
@@ -1026,10 +1026,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4">
         <v>44108</v>
@@ -1043,10 +1043,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4">
         <v>44108</v>
@@ -1060,10 +1060,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="4">
         <v>44108</v>
@@ -1077,10 +1077,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4">
         <v>44108</v>
@@ -1094,10 +1094,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4">
         <v>44108</v>
@@ -1111,10 +1111,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4">
         <v>44108</v>
